--- a/Documentation/SUS Results.xlsx
+++ b/Documentation/SUS Results.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$116</definedName>
   </definedNames>
@@ -154,6 +158,1740 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Unnecessarily</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> complex</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.3725886723176001E-2"/>
+          <c:y val="0.13240515765175731"/>
+          <c:w val="0.90955887344683006"/>
+          <c:h val="0.70267467733756694"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="79000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="97000"/>
+                    <a:lumOff val="3000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="7.8536356655126982E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="7.8536356655126885E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="8.5676025441956738E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="7.8536356655126885E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="t" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-28"/>
+        <c:axId val="-1715110464"/>
+        <c:axId val="-1715114272"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$4:$D$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$E$4:$E$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1715110464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1715114272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1715114272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1715110464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7" title="nbfdsafghmj"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>486441</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="3971925"/>
+          <a:ext cx="924591" cy="200018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800"/>
+            <a:t>Strongly</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" baseline="0"/>
+            <a:t> Disagree</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>127678</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>86375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>174613</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5614078" y="3981434"/>
+          <a:ext cx="568297" cy="193679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" baseline="0"/>
+            <a:t>Disagree</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>356257</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200686</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>184155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7671457" y="3981434"/>
+          <a:ext cx="454029" cy="203221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" baseline="0"/>
+            <a:t>Agree</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>204558</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8535080" y="4000485"/>
+          <a:ext cx="813478" cy="187340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" baseline="0"/>
+            <a:t>Strongly Agree</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>556285</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>467394</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6333</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6652285" y="3990976"/>
+          <a:ext cx="520709" cy="206357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" baseline="0"/>
+            <a:t>Neutral</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet6"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,10 +2157,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G2" t="s">
         <v>12</v>
       </c>
@@ -443,7 +2182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -454,7 +2193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -484,7 +2223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -499,7 +2238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -514,7 +2253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -529,7 +2268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -544,7 +2283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -559,7 +2298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -574,7 +2313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -589,7 +2328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -604,7 +2343,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>14</v>
       </c>
@@ -613,7 +2353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>15</v>
       </c>
@@ -622,12 +2362,14 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -657,7 +2399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -672,7 +2414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -687,7 +2429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -702,7 +2444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -717,7 +2459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -732,7 +2474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -747,7 +2489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -762,7 +2504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -777,7 +2519,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>14</v>
       </c>
@@ -786,7 +2529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>15</v>
       </c>
@@ -795,12 +2538,14 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -830,7 +2575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -845,7 +2590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -860,7 +2605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -875,7 +2620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
@@ -890,7 +2635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7</v>
       </c>
@@ -905,7 +2650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8</v>
       </c>
@@ -920,7 +2665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9</v>
       </c>
@@ -935,7 +2680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10</v>
       </c>
@@ -950,7 +2695,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>14</v>
       </c>
@@ -959,7 +2705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
         <v>15</v>
       </c>
@@ -968,12 +2714,16 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -1003,7 +2753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -1018,7 +2768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -1033,7 +2783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5</v>
       </c>
@@ -1048,7 +2798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6</v>
       </c>
@@ -1063,7 +2813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7</v>
       </c>
@@ -1078,7 +2828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>8</v>
       </c>
@@ -1093,7 +2843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>9</v>
       </c>
@@ -1108,7 +2858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10</v>
       </c>
@@ -1123,7 +2873,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
         <v>14</v>
       </c>
@@ -1132,7 +2883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
         <v>15</v>
       </c>
@@ -1141,12 +2892,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -1176,7 +2929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -1191,7 +2944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4</v>
       </c>
@@ -1206,7 +2959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5</v>
       </c>
@@ -1221,7 +2974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6</v>
       </c>
@@ -1236,7 +2989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7</v>
       </c>
@@ -1251,7 +3004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>8</v>
       </c>
@@ -1266,7 +3019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>9</v>
       </c>
@@ -1281,7 +3034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>10</v>
       </c>
@@ -1296,7 +3049,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
         <v>14</v>
       </c>
@@ -1305,7 +3059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
         <v>15</v>
       </c>
@@ -1314,12 +3068,14 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -1349,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -1364,7 +3120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4</v>
       </c>
@@ -1379,7 +3135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5</v>
       </c>
@@ -1394,7 +3150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>6</v>
       </c>
@@ -1409,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>7</v>
       </c>
@@ -1424,7 +3180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>8</v>
       </c>
@@ -1439,7 +3195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9</v>
       </c>
@@ -1454,7 +3210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>10</v>
       </c>
@@ -1469,7 +3225,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F97" t="s">
         <v>14</v>
       </c>
@@ -1478,7 +3235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F98" t="s">
         <v>15</v>
       </c>
@@ -1487,12 +3244,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -1522,7 +3283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3</v>
       </c>
@@ -1537,7 +3298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4</v>
       </c>
@@ -1552,7 +3313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5</v>
       </c>
@@ -1567,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>6</v>
       </c>
@@ -1582,7 +3343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>7</v>
       </c>
@@ -1597,7 +3358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>8</v>
       </c>
@@ -1612,7 +3373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>9</v>
       </c>
@@ -1627,7 +3388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>10</v>
       </c>
@@ -1642,7 +3403,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F115" t="s">
         <v>14</v>
       </c>
@@ -1651,7 +3413,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F116" t="s">
         <v>15</v>
       </c>
@@ -1661,8 +3423,100 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B116"/>
+  <autoFilter ref="B1:B116">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Unnecessarily complex"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>COUNTIF($B$4:$B$10,D4)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F8" si="0">COUNTIF($B$4:$B$10,D5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentation/SUS Results.xlsx
+++ b/Documentation/SUS Results.xlsx
@@ -12,14 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart creation" sheetId="7" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$B$1:$B$118</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
   <si>
     <t>SUS Results</t>
   </si>
@@ -107,18 +104,50 @@
   <si>
     <t>ID Items</t>
   </si>
+  <si>
+    <t>This spreadsheet contains the results of the SUS questionnaire which were provided to the participants during the evaluation of the Graphical Enigma Simulator</t>
+  </si>
+  <si>
+    <t>Graphical Enigma Simulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Majed Monem</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,8 +170,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,7 +473,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$D$4:$D$8</c:f>
+              <c:f>'Chart creation'!$D$4:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -462,7 +497,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$4:$F$8</c:f>
+              <c:f>'Chart creation'!$F$4:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -496,8 +531,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-28"/>
-        <c:axId val="-1715110464"/>
-        <c:axId val="-1715114272"/>
+        <c:axId val="-351599888"/>
+        <c:axId val="-351601520"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -577,7 +612,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$D$4:$D$8</c15:sqref>
+                          <c15:sqref>'Chart creation'!$D$4:$D$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -607,7 +642,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet2!$E$4:$E$8</c15:sqref>
+                          <c15:sqref>'Chart creation'!$E$4:$E$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -623,7 +658,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1715110464"/>
+        <c:axId val="-351599888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -666,7 +701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1715114272"/>
+        <c:crossAx val="-351601520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -674,7 +709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1715114272"/>
+        <c:axId val="-351601520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,7 +760,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1715110464"/>
+        <c:crossAx val="-351599888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1881,19 +1916,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet6"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2157,1279 +2179,1268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="33.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="G2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="I4">
-        <f>SUM(G4-1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="I6" s="1">
+        <f>SUM(G6-1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="I5">
-        <f>SUM(5-G5)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6">
+      <c r="I7" s="1">
+        <f>SUM(5-G7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
         <v>5</v>
       </c>
-      <c r="I6">
-        <f>SUM(G6-1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="I8" s="1">
+        <f>SUM(G8-1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="I7">
-        <f>SUM(5-G7)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="I9" s="1">
+        <f>SUM(5-G9)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <f>SUM(G8-1)</f>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <f>SUM(G10-1)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G9">
+      <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="I9">
-        <f>SUM(5-G9)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="I11" s="1">
+        <f>SUM(5-G11)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G10">
+      <c r="G12" s="1">
         <v>5</v>
       </c>
-      <c r="I10">
-        <f>SUM(G10-1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="I12" s="1">
+        <f>SUM(G12-1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <f>SUM(5-G11)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <f>SUM(5-G13)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <f>SUM(G12-1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1">
+        <f>SUM(G14-1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G13">
+      <c r="G15" s="1">
         <v>2</v>
       </c>
-      <c r="I13">
-        <f>SUM(5-G13)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
+      <c r="I15" s="1">
+        <f>SUM(5-G15)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I15">
-        <f>SUM(I4:I13)</f>
+      <c r="I17" s="1">
+        <f>SUM(I6:I15)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16">
-        <f>SUM(I15*2.5)</f>
+      <c r="I18" s="1">
+        <f>SUM(I17*2.5)</f>
         <v>82.5</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="I20">
-        <f>SUM(G20-1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="G22" s="1">
+        <v>4</v>
+      </c>
+      <c r="I22" s="1">
+        <f>SUM(G22-1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <f>SUM(5-G21)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22">
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <f>SUM(5-G23)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1">
         <v>5</v>
       </c>
-      <c r="I22">
-        <f>SUM(G22-1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="I24" s="1">
+        <f>SUM(G24-1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G23">
+      <c r="G25" s="1">
         <v>2</v>
       </c>
-      <c r="I23">
-        <f>SUM(5-G23)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="I25" s="1">
+        <f>SUM(5-G25)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G24">
+      <c r="G26" s="1">
         <v>5</v>
       </c>
-      <c r="I24">
-        <f>SUM(G24-1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="I26" s="1">
+        <f>SUM(G26-1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>6</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <f>SUM(5-G25)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <f>SUM(5-G27)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>7</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G26">
+      <c r="G28" s="1">
         <v>5</v>
       </c>
-      <c r="I26">
-        <f>SUM(G26-1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="I28" s="1">
+        <f>SUM(G28-1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <f>SUM(5-G27)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <f>SUM(5-G29)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>9</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G28">
+      <c r="G30" s="1">
         <v>5</v>
       </c>
-      <c r="I28">
-        <f>SUM(G28-1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="I30" s="1">
+        <f>SUM(G30-1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>10</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <f>SUM(5-G29)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <f>SUM(5-G31)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I31">
-        <f>SUM(I20:I29)</f>
+      <c r="I33" s="1">
+        <f>SUM(I22:I31)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I32">
-        <f>SUM(I31*2.5)</f>
+      <c r="I34" s="1">
+        <f>SUM(I33*2.5)</f>
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G36">
-        <v>3</v>
-      </c>
-      <c r="I36">
-        <f>SUM(G36-1)</f>
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+      <c r="I38" s="1">
+        <f>SUM(G38-1)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>2</v>
       </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <f>SUM(5-G37)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>3</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38">
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <f>SUM(5-G39)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="1">
         <v>5</v>
       </c>
-      <c r="I38">
-        <f>SUM(G38-1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="I40" s="1">
+        <f>SUM(G40-1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <f>SUM(5-G39)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <f>SUM(5-G41)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>5</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G40">
-        <v>4</v>
-      </c>
-      <c r="I40">
-        <f>SUM(G40-1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="G42" s="1">
+        <v>4</v>
+      </c>
+      <c r="I42" s="1">
+        <f>SUM(G42-1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>6</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <f>SUM(5-G41)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <f>SUM(5-G43)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>7</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G42">
+      <c r="G44" s="1">
         <v>5</v>
       </c>
-      <c r="I42">
-        <f>SUM(G42-1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="I44" s="1">
+        <f>SUM(G44-1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>8</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <f>SUM(5-G43)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <f>SUM(5-G45)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>9</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G44">
+      <c r="G46" s="1">
         <v>5</v>
       </c>
-      <c r="I44">
-        <f>SUM(G44-1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="I46" s="1">
+        <f>SUM(G46-1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>10</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <f>SUM(5-G45)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F47" t="s">
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <f>SUM(5-G47)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I47">
-        <f>SUM(I36:I45)</f>
+      <c r="I49" s="1">
+        <f>SUM(I38:I47)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F48" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I48">
-        <f>SUM(I47*2.5)</f>
+      <c r="I50" s="1">
+        <f>SUM(I49*2.5)</f>
         <v>92.5</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G54">
-        <v>4</v>
-      </c>
-      <c r="I54">
-        <f>SUM(G54-1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="G56" s="1">
+        <v>4</v>
+      </c>
+      <c r="I56" s="1">
+        <f>SUM(G56-1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>2</v>
       </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G55">
-        <v>3</v>
-      </c>
-      <c r="I55">
-        <f>SUM(5-G55)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>3</v>
-      </c>
-      <c r="B56" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56">
-        <v>4</v>
-      </c>
-      <c r="I56">
-        <f>SUM(G56-1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>4</v>
-      </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57">
-        <v>3</v>
-      </c>
-      <c r="I57">
+      <c r="B57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3</v>
+      </c>
+      <c r="I57" s="1">
         <f>SUM(5-G57)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>3</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="1">
+        <v>4</v>
+      </c>
+      <c r="I58" s="1">
+        <f>SUM(G58-1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>4</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B58" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58">
-        <v>5</v>
-      </c>
-      <c r="I58">
-        <f>SUM(G58-1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>6</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59">
-        <v>3</v>
-      </c>
-      <c r="I59">
+      <c r="G59" s="1">
+        <v>3</v>
+      </c>
+      <c r="I59" s="1">
         <f>SUM(5-G59)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1">
+        <v>5</v>
+      </c>
+      <c r="I60" s="1">
+        <f>SUM(G60-1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B60" t="s">
+      <c r="G61" s="1">
+        <v>3</v>
+      </c>
+      <c r="I61" s="1">
+        <f>SUM(5-G61)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>7</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G60">
-        <v>4</v>
-      </c>
-      <c r="I60">
-        <f>SUM(G60-1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="G62" s="1">
+        <v>4</v>
+      </c>
+      <c r="I62" s="1">
+        <f>SUM(G62-1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>8</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B63" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G61">
+      <c r="G63" s="1">
         <v>2</v>
       </c>
-      <c r="I61">
-        <f>SUM(5-G61)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="I63" s="1">
+        <f>SUM(5-G63)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>9</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G62">
-        <v>4</v>
-      </c>
-      <c r="I62">
-        <f>SUM(G62-1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="G64" s="1">
+        <v>4</v>
+      </c>
+      <c r="I64" s="1">
+        <f>SUM(G64-1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
         <v>10</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B65" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G63">
+      <c r="G65" s="1">
         <v>2</v>
       </c>
-      <c r="I63">
-        <f>SUM(5-G63)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F65" t="s">
+      <c r="I65" s="1">
+        <f>SUM(5-G65)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F67" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I65">
-        <f>SUM(I54:I63)</f>
+      <c r="I67" s="1">
+        <f>SUM(I56:I65)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F66" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F68" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I66">
-        <f>SUM(I65*2.5)</f>
+      <c r="I68" s="1">
+        <f>SUM(I67*2.5)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B71" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G70">
-        <v>3</v>
-      </c>
-      <c r="I70">
-        <f>SUM(G70-1)</f>
+      <c r="G72" s="1">
+        <v>3</v>
+      </c>
+      <c r="I72" s="1">
+        <f>SUM(G72-1)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
         <v>2</v>
       </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <f>SUM(5-G71)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>3</v>
-      </c>
-      <c r="B72" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72">
+      <c r="B73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1">
+        <f>SUM(5-G73)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" s="1">
         <v>5</v>
       </c>
-      <c r="I72">
-        <f>SUM(G72-1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>4</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="I74" s="1">
+        <f>SUM(G74-1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>4</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <f>SUM(5-G73)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1">
+        <f>SUM(5-G75)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
         <v>5</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G74">
-        <v>4</v>
-      </c>
-      <c r="I74">
-        <f>SUM(G74-1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="G76" s="1">
+        <v>4</v>
+      </c>
+      <c r="I76" s="1">
+        <f>SUM(G76-1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
         <v>6</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <f>SUM(5-G75)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1">
+        <f>SUM(5-G77)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
         <v>7</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G76">
-        <v>4</v>
-      </c>
-      <c r="I76">
-        <f>SUM(G76-1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="G78" s="1">
+        <v>4</v>
+      </c>
+      <c r="I78" s="1">
+        <f>SUM(G78-1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
         <v>8</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <f>SUM(5-G77)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="G79" s="1">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1">
+        <f>SUM(5-G79)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
         <v>9</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G78">
-        <v>4</v>
-      </c>
-      <c r="I78">
-        <f>SUM(G78-1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="G80" s="1">
+        <v>4</v>
+      </c>
+      <c r="I80" s="1">
+        <f>SUM(G80-1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
         <v>10</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="I79">
-        <f>SUM(5-G79)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F81" t="s">
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+      <c r="I81" s="1">
+        <f>SUM(5-G81)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F83" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I81">
-        <f>SUM(I70:I79)</f>
+      <c r="I83" s="1">
+        <f>SUM(I72:I81)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F82" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F84" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I82">
-        <f>SUM(I81*2.5)</f>
+      <c r="I84" s="1">
+        <f>SUM(I83*2.5)</f>
         <v>87.5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B87" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>1</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G86">
-        <v>3</v>
-      </c>
-      <c r="I86">
-        <f>SUM(G86-1)</f>
+      <c r="G88" s="1">
+        <v>3</v>
+      </c>
+      <c r="I88" s="1">
+        <f>SUM(G88-1)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
         <v>2</v>
       </c>
-      <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="G87">
-        <v>4</v>
-      </c>
-      <c r="I87">
-        <f>SUM(5-G87)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>3</v>
-      </c>
-      <c r="B88" t="s">
-        <v>4</v>
-      </c>
-      <c r="G88">
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="1">
+        <v>4</v>
+      </c>
+      <c r="I89" s="1">
+        <f>SUM(5-G89)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>3</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" s="1">
         <v>5</v>
       </c>
-      <c r="I88">
-        <f>SUM(G88-1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>4</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="I90" s="1">
+        <f>SUM(G90-1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>4</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G89">
-        <v>4</v>
-      </c>
-      <c r="I89">
-        <f>SUM(5-G89)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="G91" s="1">
+        <v>4</v>
+      </c>
+      <c r="I91" s="1">
+        <f>SUM(5-G91)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
         <v>5</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B92" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G90">
-        <v>3</v>
-      </c>
-      <c r="I90">
-        <f>SUM(G90-1)</f>
+      <c r="G92" s="1">
+        <v>3</v>
+      </c>
+      <c r="I92" s="1">
+        <f>SUM(G92-1)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
         <v>6</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B93" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G91">
-        <v>4</v>
-      </c>
-      <c r="I91">
-        <f>SUM(5-G91)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="G93" s="1">
+        <v>4</v>
+      </c>
+      <c r="I93" s="1">
+        <f>SUM(5-G93)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
         <v>7</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G92">
-        <v>4</v>
-      </c>
-      <c r="I92">
-        <f>SUM(G92-1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="G94" s="1">
+        <v>4</v>
+      </c>
+      <c r="I94" s="1">
+        <f>SUM(G94-1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
         <v>8</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B95" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G93">
+      <c r="G95" s="1">
         <v>2</v>
       </c>
-      <c r="I93">
-        <f>SUM(5-G93)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="I95" s="1">
+        <f>SUM(5-G95)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
         <v>9</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B96" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G94">
+      <c r="G96" s="1">
         <v>5</v>
       </c>
-      <c r="I94">
-        <f>SUM(G94-1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="I96" s="1">
+        <f>SUM(G96-1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
         <v>10</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B97" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G95">
+      <c r="G97" s="1">
         <v>2</v>
       </c>
-      <c r="I95">
-        <f>SUM(5-G95)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F97" t="s">
+      <c r="I97" s="1">
+        <f>SUM(5-G97)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F99" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I97">
-        <f>SUM(I86:I95)</f>
+      <c r="I99" s="1">
+        <f>SUM(I88:I97)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F98" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F100" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I98">
-        <f>SUM(I97*2.5)</f>
+      <c r="I100" s="1">
+        <f>SUM(I99*2.5)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B105" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>1</v>
-      </c>
-      <c r="B104" t="s">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>1</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="I104">
-        <f>SUM(G104-1)</f>
+      <c r="G106" s="1">
+        <v>1</v>
+      </c>
+      <c r="I106" s="1">
+        <f>SUM(G106-1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
         <v>2</v>
       </c>
-      <c r="B105" t="s">
-        <v>3</v>
-      </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="I105">
-        <f>SUM(5-G105)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>3</v>
-      </c>
-      <c r="B106" t="s">
-        <v>4</v>
-      </c>
-      <c r="G106">
+      <c r="B107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1</v>
+      </c>
+      <c r="I107" s="1">
+        <f>SUM(5-G107)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>3</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108" s="1">
         <v>5</v>
       </c>
-      <c r="I106">
-        <f>SUM(G106-1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>4</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="I108" s="1">
+        <f>SUM(G108-1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>4</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G107">
-        <v>1</v>
-      </c>
-      <c r="I107">
-        <f>SUM(5-G107)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="G109" s="1">
+        <v>1</v>
+      </c>
+      <c r="I109" s="1">
+        <f>SUM(5-G109)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
         <v>5</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B110" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G108">
-        <v>4</v>
-      </c>
-      <c r="I108">
-        <f>SUM(G108-1)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="G110" s="1">
+        <v>4</v>
+      </c>
+      <c r="I110" s="1">
+        <f>SUM(G110-1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
         <v>6</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B111" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-      <c r="I109">
-        <f>SUM(5-G109)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="G111" s="1">
+        <v>1</v>
+      </c>
+      <c r="I111" s="1">
+        <f>SUM(5-G111)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
         <v>7</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B112" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G110">
+      <c r="G112" s="1">
         <v>5</v>
       </c>
-      <c r="I110">
-        <f>SUM(G110-1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="I112" s="1">
+        <f>SUM(G112-1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
         <v>8</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B113" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="I111">
-        <f>SUM(5-G111)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="G113" s="1">
+        <v>1</v>
+      </c>
+      <c r="I113" s="1">
+        <f>SUM(5-G113)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
         <v>9</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B114" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G112">
-        <v>3</v>
-      </c>
-      <c r="I112">
-        <f>SUM(G112-1)</f>
+      <c r="G114" s="1">
+        <v>3</v>
+      </c>
+      <c r="I114" s="1">
+        <f>SUM(G114-1)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
         <v>10</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B115" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
-      <c r="I113">
-        <f>SUM(5-G113)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F115" t="s">
+      <c r="G115" s="1">
+        <v>1</v>
+      </c>
+      <c r="I115" s="1">
+        <f>SUM(5-G115)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F117" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I115">
-        <f>SUM(I104:I113)</f>
+      <c r="I117" s="1">
+        <f>SUM(I106:I115)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="F116" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F118" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I116">
-        <f>SUM(I115*2.5)</f>
+      <c r="I118" s="1">
+        <f>SUM(I117*2.5)</f>
         <v>82.5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B116">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Unnecessarily complex"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:B118"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3440,78 +3451,81 @@
   <dimension ref="B4:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <f>COUNTIF($B$4:$B$10,D4)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f t="shared" ref="F5:F8" si="0">COUNTIF($B$4:$B$10,D5)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="F6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="F7">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
         <v>1</v>
       </c>
     </row>
